--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="21660" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -173,6 +173,83 @@
     <t>第五组</t>
   </si>
   <si>
+    <t>第六组</t>
+  </si>
+  <si>
+    <t>田伟泽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基础Bean类（1天）
+获取网络接口（0.5天）
+分类页面策划（1天）
+git冲突修改研究（0.5天）
+分类页面（1天）
+frgment切换（0.5天）
+解决滑动冲突（1天）
+11次请求不同数据，加载适配器编写逻辑（1天)
+分类中标签页面（0.5天）
+</t>
+  </si>
+  <si>
+    <t>网络数据Bean类,网络请求接口,RecyclerView 与ScrollView的滑动冲突,git上传,适配器加载数据.</t>
+  </si>
+  <si>
+    <t>分类模块,标签模块,git,适配器.</t>
+  </si>
+  <si>
+    <t>王琦琦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home页面实现（2天）
+mvp框架（0.5天）
+数据请求框架（0.5天）
+Base基类（1天）
+自定义Glide（1天）
+自定义万能适配器（1天）
+个人中心页面实现（1天）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Base集层框架，Glide三级缓存，线程池，二级采样，主线程与子线程交互，</t>
+  </si>
+  <si>
+    <t>个人中心模块 首页模块 底层框架模块</t>
+  </si>
+  <si>
+    <t>赵于赞</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注册（0.5天）
+登录（0.5天）
+自动登录（1天）
+欢迎页（1天）
+adapter构造（1天）
+activity嵌套fragment（0.5天）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面网络加载（2天）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+登陆页面注册页面实现（0.5天）
+</t>
+    </r>
+  </si>
+  <si>
     <t>游戏学院1809A开发班实训二周开发计划</t>
   </si>
 </sst>
@@ -181,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +363,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -294,21 +424,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,16 +476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,68 +492,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -422,12 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -481,187 +563,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,6 +785,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -722,7 +824,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,15 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -789,17 +882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,133 +902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1358,25 +1440,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5277777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.462962962963" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3148148148148" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6574074074074" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="3" max="3" width="33.525" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.4666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.3166666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6583333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
+    <row r="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1469,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1704,15 +1786,84 @@
       <c r="F28" s="3"/>
       <c r="G28" s="13"/>
     </row>
+    <row r="29" ht="156.75" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" ht="114" spans="1:5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="114" customHeight="1" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" hidden="1" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" ht="14.25" hidden="1" spans="1:5">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" ht="14.25" hidden="1" spans="1:5">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="15"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="G3:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1729,21 +1880,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5277777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.462962962963" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3148148148148" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6574074074074" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="3" max="3" width="33.525" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.4666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.3166666666667" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6583333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1752,7 +1903,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.4" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2196,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2061,7 +2212,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21660" windowHeight="7635"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -171,6 +171,44 @@
   </si>
   <si>
     <t>第五组</t>
+  </si>
+  <si>
+    <t>李一凡</t>
+  </si>
+  <si>
+    <t>基础Bean类（1天）
+获取网络接口（0.5天）
+登录，注册，自动登录（1天）
+git冲突修改研究（0.5天）
+frgment切换（0.5天）
+解决滑动冲突（1天）
+分类中标签页面（0.5天）
+购物车布局（0.5天）</t>
+  </si>
+  <si>
+    <t>show，hide切换页面，基类的创建，网络框架的封装</t>
+  </si>
+  <si>
+    <t>模块化，购物车，登录注册，页面切换，基类，网络接口</t>
+  </si>
+  <si>
+    <t>韦佩</t>
+  </si>
+  <si>
+    <t>主页面布局（0.5天）
+获取主页面数据，展示数据（1天）
+分类页面中分类布局（0.5天）
+git冲突修改研究（0.5天）
+发现页面布局（0.5天）
+获取发现数据并展示数据（1天）
+封装自定义万能适配器（0.5天）
+封装Glide加载框架（0.5天）</t>
+  </si>
+  <si>
+    <t>主页面样式，分类页面样式，万能适配器，Glide加载框架</t>
+  </si>
+  <si>
+    <t>RecyclerView多布局的实现，图片的加载，页面的切换，数据的获取</t>
   </si>
   <si>
     <t>第六组</t>
@@ -221,6 +259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">注册（0.5天）
 登录（0.5天）
 自动登录（1天）
@@ -364,10 +408,61 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,16 +474,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,53 +521,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,48 +537,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,19 +607,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,168 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -785,6 +829,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -796,11 +866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,30 +892,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,6 +929,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -890,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,137 +972,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1190,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1440,10 +1528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1743,95 +1831,109 @@
       <c r="A24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="64" customHeight="1" spans="1:7">
       <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="3"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" ht="65" customHeight="1" spans="1:7">
       <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="80" customHeight="1" spans="1:7">
       <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="3"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="85" customHeight="1" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="156.75" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
-      </c>
+    <row r="28" ht="156.75" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" ht="114" spans="1:5">
+      <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" ht="114" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="114" customHeight="1" spans="1:5">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" ht="114" customHeight="1" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" hidden="1" spans="1:5">
       <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" ht="14.25" hidden="1" spans="1:5">
       <c r="A32" s="8"/>
@@ -1847,24 +1949,25 @@
       <c r="D33" s="11"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" ht="14.25" hidden="1" spans="1:5">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="15"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="G3:G28"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G3:G27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1894,7 +1997,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -46,119 +46,39 @@
     <t>第一组</t>
   </si>
   <si>
-    <t>张某</t>
-  </si>
-  <si>
-    <t>基础架构搭建（1天）
-新房管理（1天）
-租房管理（1天）
-二手房管理（1天）
-写字楼管理（1天）
-关系管理（1天）
-经纪人管理（0.5天）
-角色管理  （0.5天）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选哪些技术、为什么选择这些技术，这些技术的作用（保薪点）
-基础增删改查（保薪）
-设置菜单权限（提薪）
-</t>
-  </si>
-  <si>
-    <t>技术选型，用户、经纪人登录</t>
-  </si>
-  <si>
-    <t>李某</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新房管理crud（1天）
-租房商管理crud（1天）
-发布管理（1天）
-小区管理-小区列表（1天）
-小区管理-成交记录（1天）
-二手房源管理（1天）楼龄管理crud（1天）
-房源管理crud（1天）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-基础增删改查（保薪）</t>
-  </si>
-  <si>
-    <t>添加、删除、模糊分页、修改，新房管理</t>
-  </si>
-  <si>
-    <t>王某</t>
-  </si>
-  <si>
-    <t>小区分配管理（1天）
-房源管理-分类管理（1天）
-装修管理（1天）
-用户权限分类管理（1天）
-高级会员管理（1天）采集管理（1天）
-户型管理-分类管理（1天）
-单页页面管理（1天）
-用户分类管理（1天）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加、删除、模糊分页、修改（保薪）
-添加、编辑、删除、复制、采集（爬虫）、测试、发布（提薪）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加、删除、模糊分页、修改，发布房源
-</t>
-  </si>
-  <si>
-    <t>赵某</t>
-  </si>
-  <si>
-    <t>房源管理（1天）
-小区管理-分类管理（1天）
-装修管理（1天）
-用户分类管理（1天）
-会员管理（1天）采集管理（1天）
-户型管理-分类管理（1天）
-双页页面管理（1天）
-用户分类管理（1天）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">添加、删除、模糊分页、修改、三级联动、多条件查询，启用禁用（保薪点）
-</t>
-  </si>
-  <si>
-    <t>添加、删除、模糊分页、修改、多条件查询，启用禁用</t>
-  </si>
-  <si>
-    <t>孙某</t>
-  </si>
-  <si>
-    <t>楼龄管理（1天）
-小区管理-分类管理（1天）
-精装管理（1天）
-经纪人分类管理（1天）
-会员管理（1天）采集管理（1天）
-户型管理-分类管理（1天）
-单页页面管理（1天）
-用户分析管理（1天）</t>
-  </si>
-  <si>
-    <t>添加、删除、模糊分页、修改、查看回复（保薪）
-上传到oss，返回访问路径（提薪）</t>
-  </si>
-  <si>
-    <t>添加、删除、模糊分页、修改</t>
-  </si>
-  <si>
-    <t>田某</t>
-  </si>
-  <si>
-    <t>小区管理-分类管理（1天）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-添加、删除、模糊分页、修改、三级联动、多条件查询，启用禁用（保薪点）
-</t>
+    <t>赵泳辉</t>
+  </si>
+  <si>
+    <t>实现登录注册模块（1天）
+完成获取接口与Bean类（1天）
+实现分类页面（1天）
+实现网络，登陆等接口回调（1天）</t>
+  </si>
+  <si>
+    <t>用户注册与登陆使用Activity管理两个Fragment（保薪）
+分类页面使用万能适配器嵌套（提薪）
+优化代码，取消掉魔鬼数字（提薪）</t>
+  </si>
+  <si>
+    <t>登陆注册，优化代码，接口回调</t>
+  </si>
+  <si>
+    <t>赵凯杭</t>
+  </si>
+  <si>
+    <t>模块创建与依赖关系（1天）
+欢迎页实现（1天）
+首页面实现（1天）
+优化代码（1天）</t>
+  </si>
+  <si>
+    <t>欢迎页使用Handler 预缓存首页数据（保薪点）
+实现基类万能适配器 实现自己需要的操作（保薪）
+实现网络框架等（提薪）
+实现登陆监听（提薪）</t>
+  </si>
+  <si>
+    <t>首页，欢迎页，接口回调</t>
   </si>
   <si>
     <t>第二组</t>
@@ -379,6 +299,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">添加、删除、模糊分页、修改（保薪）
+添加、编辑、删除、复制、采集（爬虫）、测试、发布（提薪）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">添加、删除、模糊分页、修改，发布房源
+</t>
+  </si>
+  <si>
     <t>游戏学院1809A开发班实训二周开发计划</t>
   </si>
 </sst>
@@ -388,8 +317,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -492,6 +421,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -501,50 +490,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,47 +527,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,9 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +570,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,37 +621,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,37 +729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,103 +777,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,20 +857,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,15 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -993,6 +898,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,21 +954,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1045,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1613,25 +1530,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1559,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1672,13 +1589,13 @@
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="12"/>
@@ -1701,369 +1618,246 @@
       <c r="F4" s="3"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="148.5" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
+    <row r="5" ht="90" customHeight="1" spans="1:8">
+      <c r="A5" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="E5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="124.5" customHeight="1" spans="1:7">
-      <c r="A6" s="8"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" ht="116.1" customHeight="1" spans="1:7">
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="153" customHeight="1" spans="1:7">
-      <c r="A7" s="8"/>
+    <row r="7" ht="162" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="109.5" customHeight="1" spans="1:8">
+    <row r="8" ht="159.75" customHeight="1" spans="1:7">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="3"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" ht="90" customHeight="1" spans="1:8">
+    </row>
+    <row r="9" ht="138.75" customHeight="1" spans="1:7">
       <c r="A9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" ht="116.1" customHeight="1" spans="1:7">
+    </row>
+    <row r="10" ht="105.95" customHeight="1" spans="1:7">
       <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="84" customHeight="1" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
+    <row r="11" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="89.1" customHeight="1" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
+    <row r="12" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A12" s="25"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="102.95" customHeight="1" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
+    <row r="13" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A13" s="25"/>
+      <c r="B13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="162" customHeight="1" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="16"/>
+    <row r="14" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="159.75" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
+    <row r="15" ht="171.6" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" ht="138.75" customHeight="1" spans="1:7">
-      <c r="A16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="105.95" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="24" t="s">
+    </row>
+    <row r="16" ht="124.8" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" ht="150.75" customHeight="1" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24"/>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="114" customHeight="1" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" hidden="1" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" ht="147.75" customHeight="1" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" ht="15.6" hidden="1" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="78" customHeight="1" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="24"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" ht="15.6" hidden="1" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A21" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A24" s="25"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="156.75" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" ht="114" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" ht="114" customHeight="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" hidden="1" spans="1:5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" ht="14.25" hidden="1" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" ht="14.25" hidden="1" spans="1:5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="15"/>
+      <c r="E20" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G3:G24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G3:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2079,21 +1873,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2102,7 +1896,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +1978,7 @@
     </row>
     <row r="9" ht="90" customHeight="1" spans="1:8">
       <c r="A9" s="18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2232,7 +2026,7 @@
     </row>
     <row r="14" ht="162" customHeight="1" spans="1:7">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="22"/>
@@ -2279,7 +2073,7 @@
     </row>
     <row r="19" ht="138.75" customHeight="1" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="10"/>
@@ -2326,7 +2120,7 @@
     </row>
     <row r="24" ht="80.1" customHeight="1" spans="1:7">
       <c r="A24" s="25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="22"/>
@@ -2395,7 +2189,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2411,7 +2205,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -310,18 +310,41 @@
   <si>
     <t>游戏学院1809A开发班实训二周开发计划</t>
   </si>
+  <si>
+    <t>详情页面的数据展示（0.5天）
+购物车添加数据（0.5天）
+添加购物车数据是库存的判断（0.5天）
+添加数据时的动画（0.5天）
+购物车数据的实时刷新（0.5天）
+添加收货地址（0.5天）
+消息页面（0.5天）</t>
+  </si>
+  <si>
+    <t>详情页面，添加动画，收货地址功能，消息页面</t>
+  </si>
+  <si>
+    <t>错误框架的封装（0.5天）
+log的封装（0.5天）
+购物车页面的功能实现（2天）
+待支付页面的完成（0.5天）
+待付款页面的完成（0.5天）
+订单页面的完成（1天）</t>
+  </si>
+  <si>
+    <t>购物车功能，出现错误时的处理，待支付，待付款的功能，订单完成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,10 +437,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,6 +472,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -443,128 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -621,13 +637,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,145 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,17 +873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,15 +924,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -954,6 +955,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,10 +978,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,137 +990,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,14 +1200,29 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,23 +1563,23 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
+    <row r="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1590,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1721,16 +1752,16 @@
       <c r="A11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="16"/>
@@ -1738,25 +1769,25 @@
     </row>
     <row r="12" ht="63.95" customHeight="1" spans="1:7">
       <c r="A12" s="25"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" ht="65.1" customHeight="1" spans="1:7">
       <c r="A13" s="25"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="16"/>
@@ -1764,14 +1795,14 @@
     </row>
     <row r="14" ht="80.1" customHeight="1" spans="1:7">
       <c r="A14" s="25"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="171.6" spans="1:5">
+    <row r="15" ht="156.75" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +1819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="124.8" spans="1:5">
+    <row r="16" ht="114" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>52</v>
@@ -1818,21 +1849,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="15.6" hidden="1" spans="1:5">
+    <row r="18" ht="14.25" hidden="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="14"/>
       <c r="D18" s="11"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" ht="15.6" hidden="1" spans="1:5">
+    <row r="19" ht="14.25" hidden="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" ht="15.6" hidden="1" spans="1:5">
+    <row r="20" ht="14.25" hidden="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="14"/>
@@ -1867,25 +1898,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
+    <row r="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1896,7 +1927,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2122,58 +2153,69 @@
       <c r="A24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="63.95" customHeight="1" spans="1:7">
       <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="3"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" ht="65.1" customHeight="1" spans="1:7">
       <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="16"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="80.1" customHeight="1" spans="1:7">
       <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="3"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="84.95" customHeight="1" spans="1:7">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="G3:G28"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G3:G27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2189,7 +2231,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2205,7 +2247,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -311,6 +311,47 @@
     <t>游戏学院1809A开发班实训二周开发计划</t>
   </si>
   <si>
+    <t>购物车逻辑（1.5）
+错误框架（0.5）
+判断是否选中商品购买（0.5）
+判断是否绑定电话地址信息（0.5）
+购买跳转购买详细页面（0.5）
+跳转支付方式页面(0.5)</t>
+  </si>
+  <si>
+    <t>购物车增删改查
+购物车服务端的增删改查
+支付逻辑</t>
+  </si>
+  <si>
+    <t>详细页面（1.0）
+待付款页面（1.0）
+待发货页面（1.0）
+添加购物车动画（0.5）
+支付页面UI(0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取未支付订单支付
+支付成功添加到未发货
+</t>
+  </si>
+  <si>
+    <t>判断是否连接网络（1）
+待付款和待收获页面（1）
+退出登录（1）
+个人页面的信息（1）</t>
+  </si>
+  <si>
+    <t>首页面(代付款、待收货)从断网状态到连接状态，从新获取数据.
+退出登录把储存的token删除</t>
+  </si>
+  <si>
+    <t>点击结算之后判断库存（1）         跳转到订单详情页面点击下单生成订单（1）                         点击购买之后进入支付宝购买，购买成功首页发送消息（1）                                  购买失败后在待付款显示，将数据存入缓存（1）</t>
+  </si>
+  <si>
+    <t>商品详情，订单详情，商品购买，首页消息展示</t>
+  </si>
+  <si>
     <t>详情页面的数据展示（0.5天）
 购物车添加数据（0.5天）
 添加购物车数据是库存的判断（0.5天）
@@ -340,9 +381,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -445,7 +486,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +507,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -465,8 +522,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +546,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -503,14 +568,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -535,13 +592,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -551,14 +601,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -573,9 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,37 +678,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,140 +850,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -867,17 +908,34 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,6 +1005,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -955,21 +1022,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -978,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,137 +1042,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1240,96 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,51 +1337,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1693,13 +1790,13 @@
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="51" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="52" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="16"/>
@@ -1724,7 +1821,7 @@
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1737,7 +1834,7 @@
     </row>
     <row r="10" ht="105.95" customHeight="1" spans="1:7">
       <c r="A10" s="18"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="53" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1749,56 +1846,56 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="45" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A13" s="25"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="45" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A14" s="25"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
@@ -1900,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2059,46 +2156,58 @@
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="16"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" ht="159.75" customHeight="1" spans="1:7">
       <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="3"/>
       <c r="G15" s="13"/>
     </row>
     <row r="16" ht="149.25" customHeight="1" spans="1:7">
       <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="16"/>
       <c r="G16" s="13"/>
     </row>
     <row r="17" ht="169.5" customHeight="1" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="35"/>
       <c r="F17" s="3"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" ht="258.75" customHeight="1" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="16"/>
       <c r="G18" s="13"/>
     </row>
@@ -2106,113 +2215,141 @@
       <c r="A19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="16"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" ht="105.95" customHeight="1" spans="1:7">
       <c r="A20" s="18"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="3"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" ht="150.75" customHeight="1" spans="1:7">
       <c r="A21" s="18"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="24"/>
       <c r="F21" s="16"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" ht="147.75" customHeight="1" spans="1:7">
       <c r="A22" s="18"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="3"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:7">
       <c r="A23" s="18"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="16"/>
       <c r="G23" s="13"/>
     </row>
     <row r="24" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="28"/>
+      <c r="C24" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="45"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="3"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="28"/>
+      <c r="C26" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="45"/>
       <c r="F26" s="16"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="3"/>
       <c r="G27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="31">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="G3:G27"/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20550" windowHeight="11070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -311,6 +311,41 @@
     <t>游戏学院1809A开发班实训二周开发计划</t>
   </si>
   <si>
+    <t xml:space="preserve">缓存类的封装(0.5天)
+绑定手机和地址(0.5天) 
+实现待付款和待发货页面(1天)
+消息页面的实现(1天）
+支付的实现以及调用（1天) 
+自定义log(0.5天)
+商品详情页面实现(0.5天)                    </t>
+  </si>
+  <si>
+    <t>完成订单模块（保薪）
+完成收货地址模块（保薪）
+实现微信及支付宝支付（提薪）
+能独立封装日志框架（保薪）</t>
+  </si>
+  <si>
+    <t>业务功能模块实现，底层功能实现</t>
+  </si>
+  <si>
+    <t>购物车Activity的实现(1天)
+缓存类存放以及删除购物车数据(1天）
+购物车Fragment使用缓存类实现(1天)
+购物车的多选和单选以及删除(1天)
+多个页面的数据传输(1天）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能独立封装存储框架（保薪）
+完成购物车模块（保薪）
+全选删除（提薪）
+缓存类的实现以及使用（提薪）
+</t>
+  </si>
+  <si>
+    <t>数据的复用，数据传输，购物车多选单选删除</t>
+  </si>
+  <si>
     <t>购物车逻辑（1.5）
 错误框架（0.5）
 判断是否选中商品购买（0.5）
@@ -380,10 +415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -479,14 +514,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +551,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,71 +628,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,28 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -678,175 +713,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +960,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -940,17 +990,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,17 +1028,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,19 +1052,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,10 +1065,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1077,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,26 +1344,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1790,13 +1807,13 @@
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="45" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="46" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="16"/>
@@ -1821,7 +1838,7 @@
       <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -1834,7 +1851,7 @@
     </row>
     <row r="10" ht="105.95" customHeight="1" spans="1:7">
       <c r="A10" s="18"/>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1852,13 +1869,13 @@
       <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="16"/>
@@ -1866,10 +1883,10 @@
     </row>
     <row r="12" ht="63.95" customHeight="1" spans="1:7">
       <c r="A12" s="42"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13"/>
     </row>
@@ -1878,13 +1895,13 @@
       <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="16"/>
@@ -1892,10 +1909,10 @@
     </row>
     <row r="14" ht="80.1" customHeight="1" spans="1:7">
       <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
@@ -1997,8 +2014,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2051,19 +2068,35 @@
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" ht="119.1" customHeight="1" spans="1:7">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="13"/>
     </row>
@@ -2160,10 +2193,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="16"/>
@@ -2193,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="3"/>
@@ -2219,10 +2252,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="16"/>
@@ -2243,10 +2276,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="16"/>
@@ -2277,22 +2310,22 @@
       <c r="B24" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="45"/>
+      <c r="C24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="16"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" ht="63.95" customHeight="1" spans="1:7">
       <c r="A25" s="42"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="3"/>
       <c r="G25" s="13"/>
     </row>
@@ -2301,22 +2334,22 @@
       <c r="B26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="45"/>
+      <c r="C26" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="16"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="80.1" customHeight="1" spans="1:7">
       <c r="A27" s="42"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="3"/>
       <c r="G27" s="13"/>
     </row>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ptOne\ShoppingMall1809\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427E4C3-9FA0-4E9A-B75B-1B6616BB2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21720" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -335,7 +329,42 @@
     <t>业务功能模块实现，底层功能实现</t>
   </si>
   <si>
+    <t>购物车Activity的实现(1天)
+缓存类存放以及删除购物车数据(1天）
+购物车Fragment使用缓存类实现(1天)
+购物车的多选和单选以及删除(1天)
+多个页面的数据传输(1天）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">能独立封装存储框架（保薪）
+完成购物车模块（保薪）
+全选删除（提薪）
+缓存类的实现以及使用（提薪）
+</t>
+  </si>
+  <si>
     <t>数据的复用，数据传输，购物车多选单选删除</t>
+  </si>
+  <si>
+    <t>详情页 添加购物车数据 上传服务端（1天）  
+购物车页面布局 加载数据（0.5天）
+缓存类存放以及删除购物车数据(1天）
+购物车的多选和单选以及删除以及价格联动(1天)
+点击支付/删除 判断购物车数据（0.5）
+购物车逻辑（1天）</t>
+  </si>
+  <si>
+    <t>能独立封装存储框架（保薪）
+完成购物车模块（保薪）
+增删改查（提薪）
+缓存类的实现以及使用（提薪）</t>
+  </si>
+  <si>
+    <t>点击结算之后判断库存（1）         跳转到订单详情页面点击下单生成订单（1）                         点击购买之后进入支付宝购买，购买成功首页发送消息（1）                                  购买失败后在待付款显示，将数据存入缓存（1）</t>
+  </si>
+  <si>
+    <t>订单详情，商品购买，首页消息展示获取未支付订单支付
+支付成功添加到未发货</t>
   </si>
   <si>
     <t>购物车逻辑（1.5）
@@ -358,6 +387,11 @@
 支付页面UI(0.5)</t>
   </si>
   <si>
+    <t xml:space="preserve">获取未支付订单支付
+支付成功添加到未发货
+</t>
+  </si>
+  <si>
     <t>判断是否连接网络（1）
 待付款和待收获页面（1）
 退出登录（1）
@@ -366,6 +400,9 @@
   <si>
     <t>首页面(代付款、待收货)从断网状态到连接状态，从新获取数据.
 退出登录把储存的token删除</t>
+  </si>
+  <si>
+    <t>商品详情，订单详情，商品购买，首页消息展示</t>
   </si>
   <si>
     <t>详情页面的数据展示（0.5天）
@@ -380,82 +417,65 @@
     <t>详情页面，添加动画，收货地址功能，消息页面</t>
   </si>
   <si>
-    <t>购物车功能，出现错误时的处理，待支付，待付款的功能，订单完成</t>
-  </si>
-  <si>
-    <t>韩清玉</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>程天乐</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车Activity的实现(1天)
-缓存类存放以及删除购物车数据(1天）
-购物车Fragment使用缓存类实现(1天)
-购物车的多选和单选以及删除(1天)
-多个页面的数据传输(1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>错误框架的封装（0.5天）
 log的封装（0.5天）
 购物车页面的功能实现（2天）
 待支付页面的完成（0.5天）
 待付款页面的完成（0.5天）
 订单页面的完成（1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情页 添加购物车数据 上传服务端（1天）  
-购物车页面布局 加载数据（0.5天）
-缓存类存放以及删除购物车数据(1天）
-购物车的多选和单选以及删除以及价格联动(1天)
-点击支付/删除 判断购物车数据（0.5）
-购物车逻辑（1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">能独立封装存储框架（保薪）
-完成购物车模块（保薪）
-全选删除（提薪）
-缓存类的实现以及使用（提薪）
+  </si>
+  <si>
+    <t>购物车功能，出现错误时的处理，待支付，待付款的功能，订单完成</t>
+  </si>
+  <si>
+    <t>第六祖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待支付页面（0.5天）
+待付款页面（0.5天）
+订单页面（1.5天）
+从服务端获取支付信息（0.5天）
+引用支付宝（1天）
+完成支付模块（1天）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>能独立封装存储框架（保薪）
-完成购物车模块（保薪）
-增删改查（提薪）
-缓存类的实现以及使用（提薪）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击结算之后判断库存（1）         跳转到订单详情页面点击下单生成订单（1）                         点击购买之后进入支付宝购买，购买成功首页发送消息（1）                                  购买失败后在待付款显示，将数据存入缓存（1）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情，订单详情，商品购买，首页消息展示</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">获取未支付订单支付
-支付成功添加到未发货
+  </si>
+  <si>
+    <t>待支付，待发货的功能，订单完成，支付宝。</t>
+  </si>
+  <si>
+    <t>购物车添加数据（1天）
+添加购物车（0.5天）动画（0.5天）
+购物车数据的实时刷新（0.5天）
+Message页面（0.5天）订单页面（0.5天）发货页面（0.5天）明文密文切换(0.5天)购物车判断库存（0.5天）</t>
+  </si>
+  <si>
+    <t>商品详情，动画，消息页面，发货页面，数据添加，订单页面，明文密文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物车数据存储内存manager(0.5天)
+购物车全选单选（1天）
+购物车删除（0.5天）
+加减按钮（0.5天）
+Log日志（1天）
+错误日志（1天）
+提交支付查询全部物品库存（0.5天）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情，商品购买，首页消息展示获取未支付订单支付
-支付成功添加到未发货</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车模块,log日志,错误日志.商品检验库存</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,7 +509,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -548,18 +568,177 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,25 +747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79982909634693444"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79982909634693444"/>
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,8 +787,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -682,19 +1047,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +1320,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -723,6 +1336,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -735,6 +1351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,6 +1363,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -753,102 +1463,62 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1106,19 +1776,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -1130,331 +1800,332 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="156.94999999999999" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="119.1" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="90" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="90" customHeight="1" spans="1:8">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="116.1" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" ht="116.1" customHeight="1" spans="1:7">
+      <c r="A6" s="18"/>
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="162" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="162" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="159.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="138.75" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="105.95" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A10" s="18"/>
+      <c r="B10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A11" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" ht="65.099999999999994" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="156.75">
-      <c r="A15" s="22" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="156.75" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="114">
-      <c r="A16" s="22"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="114" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="114" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="114" customHeight="1" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" hidden="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" hidden="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" hidden="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
+    <row r="18" ht="14.25" hidden="1" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" ht="14.25" hidden="1" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" ht="14.25" hidden="1" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="16">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G3:G14"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -1466,395 +2137,600 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="156.94999999999999" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" ht="119.1" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="148.5" customHeight="1" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="124.5" customHeight="1" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="153" customHeight="1" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="109.5" customHeight="1" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" ht="90" customHeight="1" spans="1:8">
+      <c r="A9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" ht="116.1" customHeight="1" spans="1:7">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="240" customHeight="1" spans="1:7">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="215.25" customHeight="1" spans="1:7">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="102.95" customHeight="1" spans="1:7">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="162" customHeight="1" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="149.25" customHeight="1" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="169.5" customHeight="1" spans="1:7">
+      <c r="A17" s="8"/>
+      <c r="B17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="258.75" customHeight="1" spans="1:7">
+      <c r="A18" s="8"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="150.75" customHeight="1" spans="1:7">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" ht="147.75" customHeight="1" spans="1:7">
+      <c r="A22" s="18"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="78" customHeight="1" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A24" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" ht="148.5" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="124.5" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" ht="153" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" ht="109.5" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="90" customHeight="1">
-      <c r="A9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="116.1" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="240" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="D24" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="215.25" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D26" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" ht="102.95" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="162" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="159.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" ht="149.25" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="1:7" ht="169.5" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" ht="138.75" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" ht="105.95" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="150.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="147.75" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7" ht="78" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" ht="63.95" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7" ht="65.099999999999994" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="31"/>
+      <c r="D28" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="48"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="48"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="48"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="48"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="48"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="48"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="48"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="48"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="48"/>
+      <c r="B38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="48"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="49"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="48"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="49"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="48"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="49"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="48"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="48"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="48"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="37"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="48"/>
+      <c r="B45" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="48"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="48"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="49"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="48"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="49"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="48"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="48"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="49"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="50"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G3:G27"/>
+  <mergeCells count="44">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A51"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C51"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D28:D37"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="D45:D51"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="G3:G27"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1863,7 +2739,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21720" windowHeight="12390" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -470,12 +470,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,51 +541,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,8 +604,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +621,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,60 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -688,29 +697,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -726,19 +712,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,187 +768,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,21 +1016,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1078,11 +1030,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,22 +1079,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,137 +1132,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,6 +1306,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1348,119 +1318,106 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1788,19 +1745,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1768,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1841,13 +1798,13 @@
       <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="12"/>
@@ -1871,7 +1828,7 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" ht="90" customHeight="1" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1883,15 +1840,15 @@
       <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" ht="116.1" customHeight="1" spans="1:7">
-      <c r="A6" s="18"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
@@ -1914,16 +1871,16 @@
       <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="13"/>
     </row>
     <row r="8" ht="159.75" customHeight="1" spans="1:7">
@@ -1931,7 +1888,7 @@
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1942,23 +1899,23 @@
       <c r="G8" s="13"/>
     </row>
     <row r="9" ht="138.75" customHeight="1" spans="1:7">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" ht="105.95" customHeight="1" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1970,60 +1927,60 @@
       <c r="G10" s="13"/>
     </row>
     <row r="11" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="13"/>
     </row>
     <row r="12" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A12" s="42"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="3"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A14" s="42"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="156.75" spans="1:5">
+    <row r="15" ht="171.6" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -2040,7 +1997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="114" spans="1:5">
+    <row r="16" ht="124.8" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>52</v>
@@ -2060,36 +2017,36 @@
       <c r="B17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="14.25" hidden="1" spans="1:5">
+    <row r="18" ht="15.6" hidden="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" ht="14.25" hidden="1" spans="1:5">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" ht="15.6" hidden="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" ht="14.25" hidden="1" spans="1:5">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" ht="15.6" hidden="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2119,25 +2076,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2148,7 +2105,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2207,505 +2164,447 @@
       <c r="F4" s="3"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="148.5" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+    <row r="5" ht="240" customHeight="1" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="124.5" customHeight="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
+    <row r="6" ht="215.25" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="153" customHeight="1" spans="1:7">
-      <c r="A7" s="8"/>
+    <row r="7" ht="102.95" customHeight="1" spans="1:7">
+      <c r="A7" s="14"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="109.5" customHeight="1" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="3"/>
+    <row r="8" ht="162" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" ht="90" customHeight="1" spans="1:8">
-      <c r="A9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+    </row>
+    <row r="9" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" ht="116.1" customHeight="1" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
+    </row>
+    <row r="10" ht="149.25" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="240" customHeight="1" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+    <row r="11" ht="169.5" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="215.25" customHeight="1" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" ht="258.75" customHeight="1" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="150.75" customHeight="1" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" ht="102.95" customHeight="1" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" ht="162" customHeight="1" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" ht="159.75" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="149.25" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="16"/>
+    <row r="16" ht="147.75" customHeight="1" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="169.5" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="3"/>
+    <row r="17" ht="78" customHeight="1" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="258.75" customHeight="1" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="16"/>
+    <row r="18" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="138.75" customHeight="1" spans="1:7">
-      <c r="A19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="16"/>
+    <row r="19" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="105.95" customHeight="1" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="3"/>
+    <row r="20" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="150.75" customHeight="1" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="16"/>
+    <row r="21" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="147.75" customHeight="1" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" ht="78" customHeight="1" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A24" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>79</v>
-      </c>
+    <row r="22" spans="1:5">
+      <c r="A22" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="42"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="63.95" customHeight="1" spans="1:7">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="42"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="65.1" customHeight="1" spans="1:7">
+      <c r="B25" s="22"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="42"/>
-      <c r="B26" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>81</v>
-      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" ht="80.1" customHeight="1" spans="1:7">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="42"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>84</v>
-      </c>
+      <c r="A28" s="42"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="48"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="41"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="48"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="48"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="48"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="48"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="48"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="35"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="49"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="49"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="48"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="49"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="48"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="49"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="48"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="49"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="48"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="37"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="48"/>
-      <c r="B45" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="48"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="48"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="48"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="49"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="48"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="49"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="48"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="49"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="50"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="37"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A51"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C45:C51"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D37"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="E45:E51"/>
-    <mergeCell ref="G3:G27"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A45"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="G3:G21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2721,7 +2620,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2737,7 +2636,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView windowWidth="21720" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -464,16 +464,29 @@
   <si>
     <t>购物车模块,log日志,错误日志.商品检验库存</t>
   </si>
+  <si>
+    <t>游戏学院1809A开发班实训三周开发计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电话,地址(1天)
+支付方式（1天）
+代码优化（1天）
+网络状态的判断（1天）
+</t>
+  </si>
+  <si>
+    <t>传输地址,支付方式，网络状态</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -568,6 +581,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -583,22 +640,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,31 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,69 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -768,37 +781,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,133 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,6 +1028,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1026,36 +1050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,6 +1087,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1101,17 +1125,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1120,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,31 +1145,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,100 +1178,100 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,19 +1758,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
+    <row r="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1781,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1993,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="171.6" spans="1:5">
+    <row r="15" ht="156.75" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -1997,7 +2010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="124.8" spans="1:5">
+    <row r="16" ht="114" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>52</v>
@@ -2027,21 +2040,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="15.6" hidden="1" spans="1:5">
+    <row r="18" ht="14.25" hidden="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="15"/>
       <c r="D18" s="11"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" ht="15.6" hidden="1" spans="1:5">
+    <row r="19" ht="14.25" hidden="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="15"/>
       <c r="D19" s="11"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" ht="15.6" hidden="1" spans="1:5">
+    <row r="20" ht="14.25" hidden="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="15"/>
@@ -2078,23 +2091,23 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
+    <row r="1" ht="25.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2105,7 +2118,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="17.4" spans="1:7">
+    <row r="2" ht="18.75" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2614,14 +2627,536 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="240" customHeight="1" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="215.25" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="102.95" customHeight="1" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="162" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="149.25" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="169.5" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="258.75" customHeight="1" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="150.75" customHeight="1" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="147.75" customHeight="1" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="78" customHeight="1" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
+      <c r="A23" s="42"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="42"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" s="42"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="42"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="42"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="42"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" s="42"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" s="42"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="43"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:5">
+      <c r="A35" s="42"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:5">
+      <c r="A36" s="42"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="43"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="42"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="42"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="42"/>
+      <c r="B39" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:5">
+      <c r="A40" s="42"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="43"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:5">
+      <c r="A41" s="42"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:5">
+      <c r="A42" s="42"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="43"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:5">
+      <c r="A43" s="42"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="43"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:5">
+      <c r="A44" s="42"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="43"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="81" customHeight="1" spans="1:5">
+      <c r="A45" s="44"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A45"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="G3:G21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2632,11 +3167,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -468,6 +468,24 @@
     <t>游戏学院1809A开发班实训三周开发计划</t>
   </si>
   <si>
+    <t xml:space="preserve">友盟分享（1天）
+友盟推送（0.5天）
+腾讯云直播页面（1天）
+第三方错误解决（1.5天）
+</t>
+  </si>
+  <si>
+    <t>分享QQ用户，推送消息，云直播</t>
+  </si>
+  <si>
+    <t>消息管理代码（1天）
+代码优化（1天）友盟推送推送到消息里（1天）
+地图地址（1天）</t>
+  </si>
+  <si>
+    <t>消息管理，推送消息到消息页面，代码优化，地图地址</t>
+  </si>
+  <si>
     <t xml:space="preserve">电话,地址(1天)
 支付方式（1天）
 代码优化（1天）
@@ -483,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -581,6 +599,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -589,7 +636,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,37 +667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,14 +722,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -712,13 +737,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -781,19 +799,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,151 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,17 +1046,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1065,6 +1072,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,15 +1143,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,16 +1163,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,19 +1181,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,94 +1196,100 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2629,8 +2647,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2930,10 +2948,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E22" s="20"/>
     </row>
@@ -3006,10 +3024,10 @@
         <v>56</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -3061,10 +3079,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E39" s="31"/>
     </row>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21720" windowHeight="12390" activeTab="2"/>
+    <workbookView windowWidth="13710" windowHeight="10935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="94">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -468,6 +468,23 @@
     <t>游戏学院1809A开发班实训三周开发计划</t>
   </si>
   <si>
+    <t>实现直播页面（1天）
+集成分享（1天）
+编写收货地址的逻辑及其付款时的判断（1天）
+实现收货地址的管理类（1天）
+实现收货地址的页面（1天）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实现下订单的判断（0.5天）
+实现下订单的网络接口及其页面（0.5天）
+实现付款的选择付款方式功能（0.5天）
+集成支付宝（0.5天）
+待付款页面及付款接口（1天）
+待付款待发货管理类及待发货页面（1天）
+集成bugly的统计（1天）
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">电话,地址(1天)
 支付方式（1天）
 代码优化（1天）
@@ -483,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -582,6 +599,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -589,7 +635,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,8 +710,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,83 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -703,28 +742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -781,49 +798,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,115 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,26 +1047,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,16 +1097,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,30 +1142,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,133 +1162,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1754,7 +1771,7 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2091,8 +2108,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2629,8 +2646,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2880,11 +2897,9 @@
         <v>40</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="17"/>
       <c r="G18" s="13"/>
@@ -2904,11 +2919,9 @@
         <v>44</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="17"/>
       <c r="G20" s="13"/>
@@ -3061,10 +3074,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="31"/>
     </row>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -464,6 +464,35 @@
   <si>
     <t>购物车模块,log日志,错误日志.商品检验库存</t>
   </si>
+  <si>
+    <t>游戏学院1809A开发班实训三周开发计划</t>
+  </si>
+  <si>
+    <t>实现了支付宝支付功能（1天）
+完成了订单页面ui显示（1天）
+腾讯云直播的实现（1天）
+收货模块实现（1天）
+项目的调修（1天）</t>
+  </si>
+  <si>
+    <t>项目的直播以及适配功能的实现</t>
+  </si>
+  <si>
+    <t>接口回调，第三方应用使用</t>
+  </si>
+  <si>
+    <t>订单模块的开发（1天）
+完成了直播及短视频（1天）
+音视频同步封装（1天）
+评价模块实现（1天）
+项目的调修（1天）</t>
+  </si>
+  <si>
+    <t>订单页面的完善</t>
+  </si>
+  <si>
+    <t>封装的使用以及第三方应用使用</t>
+  </si>
 </sst>
 </file>
 
@@ -471,9 +500,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -527,20 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -562,10 +577,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -576,27 +678,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -604,11 +718,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,98 +741,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
@@ -732,18 +761,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -768,73 +785,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,73 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,26 +969,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -953,6 +982,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -965,7 +1016,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -998,7 +1051,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1009,24 +1064,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1046,16 +1084,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,9 +1124,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,11 +1144,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,293 +1185,302 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1741,312 +1803,312 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26" style="23" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="23" customWidth="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="17.4" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="156.95" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="119.1" customHeight="1" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="90" customHeight="1" spans="1:8">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="47"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" ht="116.1" customHeight="1" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="162" customHeight="1" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="159.75" customHeight="1" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="138.75" customHeight="1" spans="1:7">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="105.95" customHeight="1" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" ht="171.6" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" ht="156.75" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="124.8" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" ht="114" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" ht="114" customHeight="1" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="15.6" hidden="1" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" ht="15.6" hidden="1" spans="1:5">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" ht="15.6" hidden="1" spans="1:5">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="16"/>
+    <row r="18" ht="14.25" hidden="1" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="14.25" hidden="1" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="14.25" hidden="1" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2078,486 +2140,486 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="1" width="21.8833333333333" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26" style="23" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="29.8833333333333" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="23" customWidth="1"/>
+    <col min="6" max="6" width="31.3833333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="23" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88333333333333" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="17.4" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="156.95" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" ht="119.1" customHeight="1" spans="1:7">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="240" customHeight="1" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" ht="215.25" customHeight="1" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="102.95" customHeight="1" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="162" customHeight="1" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="159.75" customHeight="1" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="149.25" customHeight="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="169.5" customHeight="1" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="13"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="258.75" customHeight="1" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="138.75" customHeight="1" spans="1:7">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="105.95" customHeight="1" spans="1:7">
-      <c r="A14" s="14"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" ht="150.75" customHeight="1" spans="1:7">
-      <c r="A15" s="14"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" ht="147.75" customHeight="1" spans="1:7">
-      <c r="A16" s="14"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="78" customHeight="1" spans="1:7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="63.95" customHeight="1" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" ht="65.1" customHeight="1" spans="1:7">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" ht="80.1" customHeight="1" spans="1:7">
-      <c r="A21" s="38"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="42"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="42"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="42"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="42"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="43"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="43"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="50"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="42"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="31"/>
+      <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="42"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="42"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="42"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="43"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="42"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="42"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="44"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -2614,14 +2676,241 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="78" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" ht="105" customHeight="1" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2636,7 +2925,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\practical training\ShoppingMall1809\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="12390" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -436,6 +431,15 @@
     <t>第六祖</t>
   </si>
   <si>
+    <t xml:space="preserve">待支付页面（0.5天）
+待付款页面（0.5天）
+订单页面（1.5天）
+从服务端获取支付信息（0.5天）
+引用支付宝（1天）
+完成支付模块（1天）
+</t>
+  </si>
+  <si>
     <t>待支付，待发货的功能，订单完成，支付宝。</t>
   </si>
   <si>
@@ -464,23 +468,27 @@
     <t>游戏学院1809A开发班实训三周开发计划</t>
   </si>
   <si>
-    <t>分享QQ用户，推送消息，云直播</t>
-  </si>
-  <si>
-    <t>消息管理，推送消息到消息页面，代码优化，地图地址</t>
-  </si>
-  <si>
-    <t>传输地址,支付方式，网络状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">待支付页面（0.5天）
-待付款页面（0.5天）
-订单页面（1.5天）
-从服务端获取支付信息（0.5天）
-引用支付宝（1天）
-完成支付模块（1天）
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <t>友盟分享（1天）
+友盟推送（0.5天）
+腾讯云直播页面（1天）</t>
+  </si>
+  <si>
+    <t>第三方登录（1天）
+电话,地址(1天)
+代码优化（1天）
+网络状态的判断（1天）</t>
+  </si>
+  <si>
+    <t>退出登录和打电话（1）
+友盟推送（1）
+退出登录（1）
+环信（1）</t>
+  </si>
+  <si>
+    <t>电话和地址（1）
+地图（1）
+Bugly（1）
+代码优化(1)</t>
   </si>
   <si>
     <t xml:space="preserve">友盟分享（1天）
@@ -488,13 +496,17 @@
 腾讯云直播页面（1天）
 第三方错误解决（1.5天）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>友盟分享（1天）
-友盟推送（0.5天）
-腾讯云直播页面（1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享QQ用户，推送消息，云直播</t>
+  </si>
+  <si>
+    <t>消息管理代码（1天）
+代码优化（1天）友盟推送推送到消息里（1天）
+地图地址（1天）</t>
+  </si>
+  <si>
+    <t>消息管理，推送消息到消息页面，代码优化，地图地址</t>
   </si>
   <si>
     <t xml:space="preserve">电话,地址(1天)
@@ -502,27 +514,22 @@
 代码优化（1天）
 网络状态的判断（1天）
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息管理代码（1天）
-代码优化（1天）友盟推送推送到消息里（1天）
-地图地址（1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方登录（1天）
-电话,地址(1天)
-代码优化（1天）
-网络状态的判断（1天）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输地址,支付方式，网络状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +563,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <color theme="1" tint="0.0499893185216834"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -615,18 +622,156 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,25 +780,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79979857783745845"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79979857783745845"/>
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,8 +820,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -749,9 +1080,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -762,6 +1335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -776,6 +1352,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,6 +1369,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -798,109 +1383,58 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,21 +1444,104 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,19 +1799,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -1206,331 +1823,332 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="156.94999999999999" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:8" ht="119.1" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" ht="90" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="90" customHeight="1" spans="1:8">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" ht="116.1" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" ht="116.1" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="162" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="162" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:8" ht="159.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:8" ht="138.75" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="105.95" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="19" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="65.099999999999994" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="156.75">
-      <c r="A15" s="21" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="156.75" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="114">
-      <c r="A16" s="21"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" ht="114" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="114" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" ht="114" customHeight="1" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" hidden="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" hidden="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" hidden="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
+    <row r="18" ht="14.25" hidden="1" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" ht="14.25" hidden="1" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" ht="14.25" hidden="1" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="16"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="16">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G3:G14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G3:G14"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -1542,490 +2160,478 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="156.94999999999999" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="119.1" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="240" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="240" customHeight="1" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="215.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="215.25" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" ht="102.95" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="162" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="102.95" customHeight="1" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="162" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="149.25" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="169.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="44" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="149.25" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="169.5" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="138.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="258.75" customHeight="1" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="105.95" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="150.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="47" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="150.75" customHeight="1" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="147.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="78" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="147.75" customHeight="1" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="78" customHeight="1" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="63.95" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="65.099999999999994" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="42"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="22"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="22"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="B25" s="22"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="42"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="42"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" s="22"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="42"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="22"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="42"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="22"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="B30" s="22"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="42"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B31" s="26"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="42"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="D32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="42"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="42"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="50"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="42"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="50"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="42"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="42"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="40"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="42"/>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="39"/>
+      <c r="D39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="50"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="42"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="50"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="42"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="50"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="42"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="50"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="42"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="50"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="43"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="40"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="G3:G21"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A45"/>
     <mergeCell ref="B8:B10"/>
@@ -2037,37 +2643,50 @@
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B39:B45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D39:D45"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="G3:G21"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -2079,486 +2698,470 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="156.94999999999999" customHeight="1">
-      <c r="A3" s="21" t="s">
+    <row r="3" ht="156.95" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" ht="119.1" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="119.1" customHeight="1" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" ht="240" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="240" customHeight="1" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" ht="215.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="215.25" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" ht="102.95" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="162" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="102.95" customHeight="1" spans="1:7">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="162" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="149.25" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="169.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="44" t="s">
+      <c r="C8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" ht="159.75" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" ht="149.25" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" ht="169.5" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="258.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="138.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="C11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" ht="258.75" customHeight="1" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" ht="138.75" customHeight="1" spans="1:7">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="105.95" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="150.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="47" t="s">
+      <c r="C13" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" ht="105.95" customHeight="1" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" ht="150.75" customHeight="1" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="147.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="78" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="C15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="147.75" customHeight="1" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" ht="78" customHeight="1" spans="1:7">
+      <c r="A17" s="14"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="63.95" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="65.099999999999994" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" ht="63.95" customHeight="1" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="65.1" customHeight="1" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="80.099999999999994" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E20" s="20"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="80.1" customHeight="1" spans="1:7">
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="42"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="22"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="22"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="B25" s="22"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="42"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="42"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B27" s="22"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="42"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="B28" s="22"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="42"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="22"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="B30" s="22"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="42"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B31" s="26"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="42"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="39"/>
+      <c r="D32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="42"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="50"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="42"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="50"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="42"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="50"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="42"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="50"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="42"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="40"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="42"/>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="39"/>
+      <c r="C39" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="50"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="43"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="42"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="50"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="42"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="50"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="42"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="50"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="42"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="50"/>
-    </row>
-    <row r="45" spans="1:5" ht="81" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="40"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="43"/>
+    </row>
+    <row r="45" ht="81" customHeight="1" spans="1:5">
+      <c r="A45" s="44"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E39:E45"/>
-    <mergeCell ref="G3:G21"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E31"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A45"/>
     <mergeCell ref="B8:B10"/>
@@ -2570,30 +3173,43 @@
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B39:B45"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="D39:D45"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="G3:G21"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2602,7 +3218,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -473,22 +473,44 @@
 腾讯云直播页面（1天）</t>
   </si>
   <si>
+    <t>修改Bug
+云直播
+分享和分享</t>
+  </si>
+  <si>
     <t>第三方登录（1天）
 电话,地址(1天)
 代码优化（1天）
 网络状态的判断（1天）</t>
   </si>
   <si>
+    <t xml:space="preserve">更换头像
+退出登录
+打电话
+</t>
+  </si>
+  <si>
     <t>退出登录和打电话（1）
 友盟推送（1）
 退出登录（1）
 环信（1）</t>
   </si>
   <si>
+    <t xml:space="preserve">退出登录和打电话
+友盟推送
+环信
+</t>
+  </si>
+  <si>
     <t>电话和地址（1）
 地图（1）
 Bugly（1）
 代码优化(1)</t>
+  </si>
+  <si>
+    <t>绑定用户信息
+错误统计上报
+修改Bug</t>
   </si>
   <si>
     <t xml:space="preserve">友盟分享（1天）
@@ -524,10 +546,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -629,17 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,35 +672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -696,16 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,16 +696,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,9 +712,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,8 +735,54 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,7 +793,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,24 +844,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -852,157 +964,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,21 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1107,35 +1102,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,8 +1124,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2144,8 +2154,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2682,8 +2692,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2817,7 +2827,9 @@
       <c r="C8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="17"/>
       <c r="G8" s="13"/>
@@ -2846,9 +2858,11 @@
         <v>31</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="3"/>
       <c r="G11" s="13"/>
@@ -2870,9 +2884,11 @@
         <v>37</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17"/>
       <c r="G13" s="13"/>
@@ -2892,9 +2908,11 @@
         <v>35</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
@@ -2975,10 +2993,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" s="20"/>
     </row>
@@ -3051,10 +3069,10 @@
         <v>56</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -3106,10 +3124,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E39" s="31"/>
     </row>

--- a/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
+++ b/plan/游戏学院1809A开发班级实训一项目开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9372" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>游戏学院1809A开发班实训一周开发计划</t>
   </si>
@@ -473,16 +473,25 @@
 腾讯云直播页面（1天）</t>
   </si>
   <si>
+    <t>分享QQ用户，推送消息，云直播功能</t>
+  </si>
+  <si>
     <t>第三方登录（1天）
 电话,地址(1天)
 代码优化（1天）
 网络状态的判断（1天）</t>
   </si>
   <si>
+    <t>消息管理，推送消息到消息页面，代码优化，地图地址</t>
+  </si>
+  <si>
     <t>退出登录和打电话（1）
 友盟推送（1）
 退出登录（1）
 环信（1）</t>
+  </si>
+  <si>
+    <t>传输地址,支付方式，网络状态</t>
   </si>
   <si>
     <t>电话和地址（1）
@@ -506,17 +515,11 @@
 地图地址（1天）</t>
   </si>
   <si>
-    <t>消息管理，推送消息到消息页面，代码优化，地图地址</t>
-  </si>
-  <si>
     <t xml:space="preserve">电话,地址(1天)
 支付方式（1天）
 代码优化（1天）
 网络状态的判断（1天）
 </t>
-  </si>
-  <si>
-    <t>传输地址,支付方式，网络状态</t>
   </si>
 </sst>
 </file>
@@ -525,8 +528,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -623,15 +626,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +648,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -660,29 +677,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +693,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,8 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,16 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -743,24 +755,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,7 +774,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,187 +825,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,21 +1072,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1111,22 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,8 +1105,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,24 +1128,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,133 +1189,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,19 +1802,19 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1825,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2046,7 +2037,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="156.75" spans="1:5">
+    <row r="15" ht="171.6" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
@@ -2063,7 +2054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="114" spans="1:5">
+    <row r="16" ht="124.8" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>52</v>
@@ -2093,21 +2084,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="14.25" hidden="1" spans="1:5">
+    <row r="18" ht="15.6" hidden="1" spans="1:5">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="15"/>
       <c r="D18" s="11"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" ht="14.25" hidden="1" spans="1:5">
+    <row r="19" ht="15.6" hidden="1" spans="1:5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="15"/>
       <c r="D19" s="11"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" ht="14.25" hidden="1" spans="1:5">
+    <row r="20" ht="15.6" hidden="1" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="15"/>
@@ -2144,23 +2135,23 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2171,7 +2162,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2682,23 +2673,23 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="31.3796296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:7">
+    <row r="1" ht="25.8" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
@@ -2709,7 +2700,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2808,9 @@
       <c r="C8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="17"/>
       <c r="G8" s="13"/>
@@ -2846,9 +2839,11 @@
         <v>31</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="3"/>
       <c r="G11" s="13"/>
@@ -2870,9 +2865,11 @@
         <v>37</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="17"/>
       <c r="G13" s="13"/>
@@ -2892,9 +2889,11 @@
         <v>35</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
@@ -2975,10 +2974,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E22" s="20"/>
     </row>
@@ -3051,10 +3050,10 @@
         <v>56</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -3106,10 +3105,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E39" s="31"/>
     </row>
@@ -3216,7 +3215,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
